--- a/models_and_metrics/metrics_summary.xlsx
+++ b/models_and_metrics/metrics_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio Coding\DL_final_project\models_and_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6726BB0F-619B-42DB-B8E6-0CE081ACA321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245DC1BC-1F4C-4FA1-A503-F305E5207445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -56,16 +56,7 @@
     <t>EA</t>
   </si>
   <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
     <t>Parameters</t>
-  </si>
-  <si>
-    <t>Train Time (second)</t>
-  </si>
-  <si>
-    <t>Inference Time (seconds)</t>
   </si>
   <si>
     <t>Test Accuracy</t>
@@ -76,23 +67,54 @@
   <si>
     <t>Test Precision</t>
   </si>
+  <si>
+    <t>Base Premade</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>Val Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Epochs </t>
+  </si>
+  <si>
+    <t>Average Iter per Second (iter/s)</t>
+  </si>
+  <si>
+    <t>Train Time (seconds)</t>
+  </si>
+  <si>
+    <t>Inference Time (iter/s)</t>
+  </si>
+  <si>
+    <t>Hybrid 1 (Rotary + RMS)</t>
+  </si>
+  <si>
+    <t>Hybrid 2 (Rotary + RMS + GLU)</t>
+  </si>
+  <si>
+    <t>Hybrid 3 (Rotary + RMS + EA)</t>
+  </si>
+  <si>
+    <t>Hybrid 4 (Rotary + RMS + EA + GLU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,11 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,6 +161,3575 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Base Premade</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GLU </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ReZero </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Rotary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.60298507462686501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65124378109452696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65970149253731303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64228855721392997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64477611940298496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59402985074626802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68656716417910402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAD3-4ED3-B85E-F5CFD7F8C0F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1395441056"/>
+        <c:axId val="1275756048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1395441056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275756048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275756048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395441056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Iter per Second (iter/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Base Premade</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GLU </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ReZero </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Rotary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5467571644042233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5911559348332041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5401752190237796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1946351931330472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4032567049808429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6058178752107926</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5191614066726782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E995-494D-B4C0-12767956CDB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1391257712"/>
+        <c:axId val="980491056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1391257712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980491056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="980491056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391257712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inference Time (iter/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Base Premade</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GLU </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ReZero </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Rotary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7056463190300515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.708168241635815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6118599324271554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0460887540396802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4175806298042897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6777509049383186</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.4855667830802886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1899-4769-9CC4-D1B5A8B5343D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1393802208"/>
+        <c:axId val="1393804608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1393802208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393804608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1393804608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393802208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Base Premade</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GLU </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ReZero </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Rotary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>85806346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85653514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85635082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114001930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85653526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85616674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85653514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2045-4F01-9A39-63184E6DA4A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1327690640"/>
+        <c:axId val="1327690160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1327690640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327690160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1327690160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327690640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A3C93E-BCF8-16A7-B617-BF30D11D6911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1A2652-927D-C5F5-CBDA-F129BD6FD831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9868B6-29D9-60BF-3F5F-7DBA4C3B034D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA4664B-F08B-2A52-65AE-931F9FB67AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,37 +4049,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0439EB13-8DEA-4DA4-BD28-E0ABE1F425AC}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -492,44 +4090,368 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2652</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f>C2*293/B2</f>
+        <v>1.5467571644042233</v>
+      </c>
+      <c r="E2" s="2">
+        <f>32 / 11.8271186351776</f>
+        <v>2.7056463190300515</v>
+      </c>
+      <c r="F2">
+        <v>0.63613738178198098</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.60298507462686501</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.60112383449298201</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.61423096264957999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>85806346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>187</v>
-      </c>
-      <c r="G2" s="1">
-        <v>85806346</v>
+      <c r="B3" s="1">
+        <v>3867</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3*293/B3</f>
+        <v>1.5911559348332041</v>
+      </c>
+      <c r="E3" s="2">
+        <f>32 / 11.816104888916</f>
+        <v>2.708168241635815</v>
+      </c>
+      <c r="F3">
+        <v>0.67048282727725195</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.65124378109452696</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.64995872522633302</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.65134428167521696</v>
+      </c>
+      <c r="J3" s="1">
+        <v>85653514</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>3995</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.5401752190237796</v>
+      </c>
+      <c r="E4" s="3">
+        <f>32 / 12.2518055438995</f>
+        <v>2.6118599324271554</v>
+      </c>
+      <c r="F4">
+        <v>0.67247386759581795</v>
+      </c>
+      <c r="G4">
+        <v>0.65970149253731303</v>
+      </c>
+      <c r="H4">
+        <v>0.65817914738445704</v>
+      </c>
+      <c r="I4">
+        <v>0.65885042745802802</v>
+      </c>
+      <c r="J4">
+        <v>85635082</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>4660</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.1946351931330472</v>
+      </c>
+      <c r="E5" s="3">
+        <f>32/ 15.6395952701568</f>
+        <v>2.0460887540396802</v>
+      </c>
+      <c r="F5">
+        <v>0.67197610751617698</v>
+      </c>
+      <c r="G5">
+        <v>0.64228855721392997</v>
+      </c>
+      <c r="H5">
+        <v>0.64057131589716398</v>
+      </c>
+      <c r="I5">
+        <v>0.64417278042856796</v>
+      </c>
+      <c r="J5">
+        <v>114001930</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>5220</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.4032567049808429</v>
+      </c>
+      <c r="E6" s="3">
+        <f>32 /13.23637342453</f>
+        <v>2.4175806298042897</v>
+      </c>
+      <c r="F6">
+        <v>0.66998506719760997</v>
+      </c>
+      <c r="G6">
+        <v>0.64477611940298496</v>
+      </c>
+      <c r="H6">
+        <v>0.64345585529285998</v>
+      </c>
+      <c r="I6">
+        <v>0.64487501296850602</v>
+      </c>
+      <c r="J6">
+        <v>85653526</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
+      <c r="B7">
+        <v>4744</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <f>C7*293/B7</f>
+        <v>1.6058178752107926</v>
+      </c>
+      <c r="E7" s="3">
+        <f>32 / 11.9503273963928</f>
+        <v>2.6777509049383186</v>
+      </c>
+      <c r="F7">
+        <v>0.60328521652563405</v>
+      </c>
+      <c r="G7">
+        <v>0.59402985074626802</v>
+      </c>
+      <c r="H7">
+        <v>0.59245957484766099</v>
+      </c>
+      <c r="I7">
+        <v>0.59228914430539503</v>
+      </c>
+      <c r="J7">
+        <v>85616674</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4436</v>
+      </c>
+      <c r="C8" s="1">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <f>C8*293/B8</f>
+        <v>1.5191614066726782</v>
+      </c>
+      <c r="E8" s="1">
+        <f>32 / 12.8743271827697</f>
+        <v>2.4855667830802886</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.70084619213539001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.68656716417910402</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.68525039116487696</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.68897861885716305</v>
+      </c>
+      <c r="J8">
+        <v>85653514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4619</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <f>C9*293/B9</f>
+        <v>1.5224074474994587</v>
+      </c>
+      <c r="E9">
+        <f xml:space="preserve"> 32 / 12.6667664051055</f>
+        <v>2.5262958971993039</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.715778994524639</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.68805970149253703</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.68660909411717697</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.69102997184543002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>85635082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>4661</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D12" si="1">C10*293/B10</f>
+        <v>1.1943788886505042</v>
+      </c>
+      <c r="E10">
+        <f xml:space="preserve"> 32 / 16.0069088935852</f>
+        <v>1.999136761053476</v>
+      </c>
+      <c r="F10">
+        <v>0.72075659532105496</v>
+      </c>
+      <c r="G10">
+        <v>0.70646766169154196</v>
+      </c>
+      <c r="H10">
+        <v>0.70522165661944303</v>
+      </c>
+      <c r="I10">
+        <v>0.70676026749341603</v>
+      </c>
+      <c r="J10">
+        <v>113983498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>5181</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.3572669368847712</v>
+      </c>
+      <c r="E11">
+        <f xml:space="preserve"> 32/ 14.0491971969604</f>
+        <v>2.2777102172730075</v>
+      </c>
+      <c r="F11">
+        <v>0.71876555500248795</v>
+      </c>
+      <c r="G11">
+        <v>0.69253731343283498</v>
+      </c>
+      <c r="H11">
+        <v>0.69128572810917699</v>
+      </c>
+      <c r="I11">
+        <v>0.69593767606894896</v>
+      </c>
+      <c r="J11">
+        <v>85635094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/models_and_metrics/metrics_summary.xlsx
+++ b/models_and_metrics/metrics_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio Coding\DL_final_project\models_and_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245DC1BC-1F4C-4FA1-A503-F305E5207445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD3654-2292-454F-ACF7-88B33F563486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,15 +137,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,9 +241,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -263,16 +264,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Rotary</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hybrid 1 (Rotary + RMS)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.60298507462686501</c:v>
                 </c:pt>
@@ -293,6 +303,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.68656716417910402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68805970149253703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70646766169154196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69253731343283498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,9 +571,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -575,16 +594,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Rotary</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hybrid 1 (Rotary + RMS)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5467571644042233</c:v>
                 </c:pt>
@@ -605,6 +633,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5191614066726782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5224074474994587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1943788886505042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3572669368847712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,9 +901,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -887,16 +924,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Rotary</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hybrid 1 (Rotary + RMS)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.7056463190300515</c:v>
                 </c:pt>
@@ -917,6 +963,15 @@
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>2.4855667830802886</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.5262958971993039</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.999136761053476</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.2777102172730075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,9 +1231,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -1199,16 +1254,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Rotary</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hybrid 1 (Rotary + RMS)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$8</c:f>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>85806346</c:v>
                 </c:pt>
@@ -1229,6 +1293,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>85653514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85635082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113983498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85635094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3588,15 +3661,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4052,401 +4125,427 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>2652</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>C2*293/B2</f>
         <v>1.5467571644042233</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f>32 / 11.8271186351776</f>
         <v>2.7056463190300515</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.63613738178198098</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.60298507462686501</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0.60112383449298201</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.61423096264957999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>85806346</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>3867</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D6" si="0">C3*293/B3</f>
         <v>1.5911559348332041</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f>32 / 11.816104888916</f>
         <v>2.708168241635815</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.67048282727725195</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.65124378109452696</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.64995872522633302</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.65134428167521696</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>85653514</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>1.5401752190237796</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <f>32 / 12.2518055438995</f>
         <v>2.6118599324271554</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.67247386759581795</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.65970149253731303</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.65817914738445704</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.65885042745802802</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>85635082</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4660</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>1.1946351931330472</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <f>32/ 15.6395952701568</f>
         <v>2.0460887540396802</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.67197610751617698</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.64228855721392997</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.64057131589716398</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.64417278042856796</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>114001930</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5220</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>1.4032567049808429</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <f>32 /13.23637342453</f>
         <v>2.4175806298042897</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.66998506719760997</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.64477611940298496</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.64345585529285998</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.64487501296850602</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>85653526</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>4744</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f>C7*293/B7</f>
         <v>1.6058178752107926</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <f>32 / 11.9503273963928</f>
         <v>2.6777509049383186</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.60328521652563405</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.59402985074626802</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.59245957484766099</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.59228914430539503</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>85616674</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>4436</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>C8*293/B8</f>
         <v>1.5191614066726782</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f>32 / 12.8743271827697</f>
         <v>2.4855667830802886</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.70084619213539001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.68656716417910402</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.68525039116487696</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.68897861885716305</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>85653514</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>4619</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>C9*293/B9</f>
         <v>1.5224074474994587</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f xml:space="preserve"> 32 / 12.6667664051055</f>
         <v>2.5262958971993039</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.715778994524639</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.68805970149253703</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.68660909411717697</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>0.69102997184543002</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>85635082</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>4661</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" ref="D10:D12" si="1">C10*293/B10</f>
         <v>1.1943788886505042</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f xml:space="preserve"> 32 / 16.0069088935852</f>
         <v>1.999136761053476</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.72075659532105496</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.70646766169154196</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.70522165661944303</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.70676026749341603</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>113983498</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5181</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>1.3572669368847712</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f xml:space="preserve"> 32/ 14.0491971969604</f>
         <v>2.2777102172730075</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.71876555500248795</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.69253731343283498</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.69128572810917699</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.69593767606894896</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>85635094</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="e">
+      <c r="B12" s="1">
+        <v>5097</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0922111045713165</v>
+      </c>
+      <c r="E12" s="1">
+        <f>32/17.3773918151855</f>
+        <v>1.8414731244096314</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.72374315579890403</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.70447761194029801</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.70342781452877201</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.70493985269063997</v>
+      </c>
+      <c r="J12" s="1">
+        <v>113983510</v>
       </c>
     </row>
   </sheetData>

--- a/models_and_metrics/metrics_summary.xlsx
+++ b/models_and_metrics/metrics_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio Coding\DL_final_project\models_and_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD3654-2292-454F-ACF7-88B33F563486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE4B43-8663-404F-BD88-C0F61896D224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>RMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU </t>
   </si>
   <si>
     <t>EA</t>
@@ -100,6 +97,12 @@
   <si>
     <t>Hybrid 4 (Rotary + RMS + EA + GLU)</t>
   </si>
+  <si>
+    <t>GLU GELU</t>
+  </si>
+  <si>
+    <t>GLU ATLU</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -147,6 +150,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,9 +247,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -254,24 +260,27 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU </c:v>
+                  <c:v>GLU GELU</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>GLU ATLU</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>EA</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ReZero </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Rotary</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hybrid 1 (Rotary + RMS)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
@@ -279,10 +288,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.60298507462686501</c:v>
                 </c:pt>
@@ -296,21 +305,24 @@
                   <c:v>0.64228855721392997</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.64079601990049695</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.64477611940298496</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.59402985074626802</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.68656716417910402</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.68805970149253703</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.70646766169154196</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.69253731343283498</c:v>
                 </c:pt>
               </c:numCache>
@@ -571,9 +583,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -584,24 +596,27 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU </c:v>
+                  <c:v>GLU GELU</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>GLU ATLU</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>EA</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ReZero </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Rotary</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hybrid 1 (Rotary + RMS)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
@@ -609,10 +624,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.5467571644042233</c:v>
                 </c:pt>
@@ -626,21 +641,24 @@
                   <c:v>1.1946351931330472</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.4167626064932075</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.4032567049808429</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.6058178752107926</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.5191614066726782</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.5224074474994587</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1943788886505042</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.3572669368847712</c:v>
                 </c:pt>
               </c:numCache>
@@ -901,9 +919,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -914,24 +932,27 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU </c:v>
+                  <c:v>GLU GELU</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>GLU ATLU</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>EA</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ReZero </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Rotary</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hybrid 1 (Rotary + RMS)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
@@ -939,10 +960,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.7056463190300515</c:v>
                 </c:pt>
@@ -955,22 +976,25 @@
                 <c:pt idx="3">
                   <c:v>2.0460887540396802</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.4216987593193782</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.4175806298042897</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.6777509049383186</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="7" formatCode="General">
                   <c:v>2.4855667830802886</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="8" formatCode="General">
                   <c:v>2.5262958971993039</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="9" formatCode="General">
                   <c:v>1.999136761053476</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="10" formatCode="General">
                   <c:v>2.2777102172730075</c:v>
                 </c:pt>
               </c:numCache>
@@ -1231,9 +1255,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Base Premade</c:v>
                 </c:pt>
@@ -1244,24 +1268,27 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU </c:v>
+                  <c:v>GLU GELU</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>GLU ATLU</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>EA</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ReZero </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Rotary</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hybrid 1 (Rotary + RMS)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Hybrid 2 (Rotary + RMS + GLU)</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Hybrid 3 (Rotary + RMS + EA)</c:v>
                 </c:pt>
               </c:strCache>
@@ -1269,10 +1296,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:f>Sheet1!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>85806346</c:v>
                 </c:pt>
@@ -1289,18 +1316,21 @@
                   <c:v>85653526</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>85653526</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>85616674</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>85653514</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>85635082</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>113983498</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>85635094</c:v>
                 </c:pt>
               </c:numCache>
@@ -3660,16 +3690,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3696,16 +3726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3732,16 +3762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3768,16 +3798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4122,24 +4152,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0439EB13-8DEA-4DA4-BD28-E0ABE1F425AC}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4147,36 +4176,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>2652</v>
@@ -4278,7 +4307,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4660</v>
@@ -4312,33 +4341,33 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5220</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4343</v>
+      </c>
+      <c r="C6" s="5">
+        <v>21</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4032567049808429</v>
-      </c>
-      <c r="E6" s="4">
-        <f>32 /13.23637342453</f>
-        <v>2.4175806298042897</v>
+        <f>C6*293/B6</f>
+        <v>1.4167626064932075</v>
+      </c>
+      <c r="E6" s="1">
+        <f xml:space="preserve"> 32 / 13.2138648033142</f>
+        <v>2.4216987593193782</v>
       </c>
       <c r="F6" s="1">
-        <v>0.66998506719760997</v>
+        <v>0.65953210552513597</v>
       </c>
       <c r="G6" s="1">
-        <v>0.64477611940298496</v>
+        <v>0.64079601990049695</v>
       </c>
       <c r="H6" s="1">
-        <v>0.64345585529285998</v>
+        <v>0.63969087867928998</v>
       </c>
       <c r="I6" s="1">
-        <v>0.64487501296850602</v>
+        <v>0.64025393621224402</v>
       </c>
       <c r="J6" s="1">
         <v>85653526</v>
@@ -4346,205 +4375,239 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>4744</v>
+        <v>5220</v>
       </c>
       <c r="C7" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <f>C7*293/B7</f>
-        <v>1.6058178752107926</v>
+        <v>1.4032567049808429</v>
       </c>
       <c r="E7" s="4">
-        <f>32 / 11.9503273963928</f>
-        <v>2.6777509049383186</v>
+        <f>32 /13.23637342453</f>
+        <v>2.4175806298042897</v>
       </c>
       <c r="F7" s="1">
-        <v>0.60328521652563405</v>
+        <v>0.66998506719760997</v>
       </c>
       <c r="G7" s="1">
-        <v>0.59402985074626802</v>
+        <v>0.64477611940298496</v>
       </c>
       <c r="H7" s="1">
-        <v>0.59245957484766099</v>
+        <v>0.64345585529285998</v>
       </c>
       <c r="I7" s="1">
-        <v>0.59228914430539503</v>
+        <v>0.64487501296850602</v>
       </c>
       <c r="J7" s="1">
-        <v>85616674</v>
+        <v>85653526</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4436</v>
-      </c>
-      <c r="C8" s="2">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4744</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <f>C8*293/B8</f>
-        <v>1.5191614066726782</v>
-      </c>
-      <c r="E8" s="2">
-        <f>32 / 12.8743271827697</f>
-        <v>2.4855667830802886</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.70084619213539001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.68656716417910402</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.68525039116487696</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.68897861885716305</v>
+        <v>1.6058178752107926</v>
+      </c>
+      <c r="E8" s="4">
+        <f>32 / 11.9503273963928</f>
+        <v>2.6777509049383186</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.60328521652563405</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.59402985074626802</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.59245957484766099</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.59228914430539503</v>
       </c>
       <c r="J8" s="1">
-        <v>85653514</v>
+        <v>85616674</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>4619</v>
-      </c>
-      <c r="C9" s="1">
-        <v>24</v>
+        <v>4436</v>
+      </c>
+      <c r="C9" s="2">
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <f>C9*293/B9</f>
-        <v>1.5224074474994587</v>
-      </c>
-      <c r="E9" s="1">
-        <f xml:space="preserve"> 32 / 12.6667664051055</f>
-        <v>2.5262958971993039</v>
+        <v>1.5191614066726782</v>
+      </c>
+      <c r="E9" s="2">
+        <f>32 / 12.8743271827697</f>
+        <v>2.4855667830802886</v>
       </c>
       <c r="F9" s="2">
-        <v>0.715778994524639</v>
+        <v>0.70084619213539001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.68805970149253703</v>
+        <v>0.68656716417910402</v>
       </c>
       <c r="H9" s="2">
-        <v>0.68660909411717697</v>
+        <v>0.68525039116487696</v>
       </c>
       <c r="I9" s="2">
-        <v>0.69102997184543002</v>
-      </c>
-      <c r="J9" s="2">
-        <v>85635082</v>
+        <v>0.68897861885716305</v>
+      </c>
+      <c r="J9" s="1">
+        <v>85653514</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4661</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4619</v>
       </c>
       <c r="C10" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D12" si="1">C10*293/B10</f>
-        <v>1.1943788886505042</v>
+        <f>C10*293/B10</f>
+        <v>1.5224074474994587</v>
       </c>
       <c r="E10" s="1">
-        <f xml:space="preserve"> 32 / 16.0069088935852</f>
-        <v>1.999136761053476</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.72075659532105496</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.70646766169154196</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.70522165661944303</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.70676026749341603</v>
-      </c>
-      <c r="J10" s="1">
-        <v>113983498</v>
+        <f xml:space="preserve"> 32 / 12.6667664051055</f>
+        <v>2.5262958971993039</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.715778994524639</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.68805970149253703</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.68660909411717697</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.69102997184543002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>85635082</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4661</v>
+      </c>
+      <c r="C11" s="1">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>5181</v>
-      </c>
-      <c r="C11" s="1">
-        <v>24</v>
-      </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3572669368847712</v>
+        <f t="shared" ref="D11:D13" si="1">C11*293/B11</f>
+        <v>1.1943788886505042</v>
       </c>
       <c r="E11" s="1">
-        <f xml:space="preserve"> 32/ 14.0491971969604</f>
-        <v>2.2777102172730075</v>
+        <f xml:space="preserve"> 32 / 16.0069088935852</f>
+        <v>1.999136761053476</v>
       </c>
       <c r="F11" s="1">
-        <v>0.71876555500248795</v>
+        <v>0.72075659532105496</v>
       </c>
       <c r="G11" s="1">
-        <v>0.69253731343283498</v>
+        <v>0.70646766169154196</v>
       </c>
       <c r="H11" s="1">
-        <v>0.69128572810917699</v>
+        <v>0.70522165661944303</v>
       </c>
       <c r="I11" s="1">
-        <v>0.69593767606894896</v>
+        <v>0.70676026749341603</v>
       </c>
       <c r="J11" s="1">
-        <v>85635094</v>
+        <v>113983498</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>5097</v>
+        <v>5181</v>
       </c>
       <c r="C12" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
+        <v>1.3572669368847712</v>
+      </c>
+      <c r="E12" s="1">
+        <f xml:space="preserve"> 32/ 14.0491971969604</f>
+        <v>2.2777102172730075</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.71876555500248795</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.69253731343283498</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.69128572810917699</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.69593767606894896</v>
+      </c>
+      <c r="J12" s="1">
+        <v>85635094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5097</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
         <v>1.0922111045713165</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <f>32/17.3773918151855</f>
         <v>1.8414731244096314</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>0.72374315579890403</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>0.70447761194029801</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>0.70342781452877201</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>0.70493985269063997</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J13" s="1">
         <v>113983510</v>
       </c>
     </row>

--- a/models_and_metrics/metrics_summary.xlsx
+++ b/models_and_metrics/metrics_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio Coding\DL_final_project\models_and_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE4B43-8663-404F-BD88-C0F61896D224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFADFF-3715-4087-8C3A-F9DD6B7F8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>RMS</t>
-  </si>
-  <si>
-    <t>EA</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -98,10 +95,13 @@
     <t>Hybrid 4 (Rotary + RMS + EA + GLU)</t>
   </si>
   <si>
-    <t>GLU GELU</t>
+    <t xml:space="preserve">GLU </t>
   </si>
   <si>
-    <t>GLU ATLU</t>
+    <t>EA ATLU</t>
+  </si>
+  <si>
+    <t>EA GELU</t>
   </si>
 </sst>
 </file>
@@ -140,17 +140,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -260,13 +259,13 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU GELU</c:v>
+                  <c:v>GLU </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLU ATLU</c:v>
+                  <c:v>EA ATLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>EA</c:v>
+                  <c:v>EA GELU</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ReZero </c:v>
@@ -596,13 +595,13 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU GELU</c:v>
+                  <c:v>GLU </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLU ATLU</c:v>
+                  <c:v>EA ATLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>EA</c:v>
+                  <c:v>EA GELU</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ReZero </c:v>
@@ -932,13 +931,13 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU GELU</c:v>
+                  <c:v>GLU </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLU ATLU</c:v>
+                  <c:v>EA ATLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>EA</c:v>
+                  <c:v>EA GELU</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ReZero </c:v>
@@ -1268,13 +1267,13 @@
                   <c:v>RMS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLU GELU</c:v>
+                  <c:v>GLU </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLU ATLU</c:v>
+                  <c:v>EA ATLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>EA</c:v>
+                  <c:v>EA GELU</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ReZero </c:v>
@@ -4155,7 +4154,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,442 +4171,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
+      <c r="J1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
         <v>2652</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <f>C2*293/B2</f>
         <v>1.5467571644042233</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>32 / 11.8271186351776</f>
         <v>2.7056463190300515</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>0.63613738178198098</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0.60298507462686501</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.60112383449298201</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.61423096264957999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>85806346</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3867</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D6" si="0">C3*293/B3</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">C3*293/B3</f>
         <v>1.5911559348332041</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>32 / 11.816104888916</f>
         <v>2.708168241635815</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>0.67048282727725195</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.65124378109452696</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.64995872522633302</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.65134428167521696</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>85653514</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>3995</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>21</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>1.5401752190237796</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>32 / 12.2518055438995</f>
         <v>2.6118599324271554</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>0.67247386759581795</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>0.65970149253731303</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.65817914738445704</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.65885042745802802</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>85635082</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
         <v>4660</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>1.1946351931330472</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>32/ 15.6395952701568</f>
         <v>2.0460887540396802</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>0.67197610751617698</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>0.64228855721392997</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0.64057131589716398</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.64417278042856796</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>114001930</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4343</v>
+      </c>
+      <c r="C6" s="4">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
-        <v>4343</v>
-      </c>
-      <c r="C6" s="5">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <f>C6*293/B6</f>
         <v>1.4167626064932075</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <f xml:space="preserve"> 32 / 13.2138648033142</f>
         <v>2.4216987593193782</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>0.65953210552513597</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>0.64079601990049695</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>0.63969087867928998</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.64025393621224402</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>85653526</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
         <v>5220</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>25</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <f>C7*293/B7</f>
         <v>1.4032567049808429</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>32 /13.23637342453</f>
         <v>2.4175806298042897</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>0.66998506719760997</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>0.64477611940298496</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>0.64345585529285998</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.64487501296850602</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>85653526</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>4744</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <f>C8*293/B8</f>
         <v>1.6058178752107926</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>32 / 11.9503273963928</f>
         <v>2.6777509049383186</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>0.60328521652563405</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>0.59402985074626802</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>0.59245957484766099</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.59228914430539503</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>85616674</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
         <v>4436</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>23</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <f>C9*293/B9</f>
         <v>1.5191614066726782</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>32 / 12.8743271827697</f>
         <v>2.4855667830802886</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.70084619213539001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.68656716417910402</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.68525039116487696</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.68897861885716305</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>85653514</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
         <v>4619</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>24</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <f>C10*293/B10</f>
         <v>1.5224074474994587</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <f xml:space="preserve"> 32 / 12.6667664051055</f>
         <v>2.5262958971993039</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.715778994524639</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.68805970149253703</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.68660909411717697</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.69102997184543002</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>85635082</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>4661</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <f t="shared" ref="D11:D13" si="1">C11*293/B11</f>
         <v>1.1943788886505042</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <f xml:space="preserve"> 32 / 16.0069088935852</f>
         <v>1.999136761053476</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>0.72075659532105496</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>0.70646766169154196</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>0.70522165661944303</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.70676026749341603</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>113983498</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>5181</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>24</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>1.3572669368847712</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <f xml:space="preserve"> 32/ 14.0491971969604</f>
         <v>2.2777102172730075</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>0.71876555500248795</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>0.69253731343283498</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>0.69128572810917699</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0.69593767606894896</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>85635094</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>5097</v>
+      </c>
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
-        <v>5097</v>
-      </c>
-      <c r="C13" s="1">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>1.0922111045713165</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <f>32/17.3773918151855</f>
         <v>1.8414731244096314</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>0.72374315579890403</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>0.70447761194029801</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>0.70342781452877201</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>0.70493985269063997</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>113983510</v>
       </c>
     </row>

--- a/models_and_metrics/metrics_summary.xlsx
+++ b/models_and_metrics/metrics_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio Coding\DL_final_project\models_and_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFADFF-3715-4087-8C3A-F9DD6B7F8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD108F48-6E4B-4B17-80C3-B5773E107C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>EA GELU</t>
+  </si>
+  <si>
+    <t>Test Precision Change over baseline</t>
+  </si>
+  <si>
+    <t>Average Epoch time Seconds</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,7 +293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:f>Sheet1!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -561,7 +567,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -623,7 +629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -897,7 +903,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -959,7 +965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1233,7 +1239,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1295,7 +1301,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$12</c:f>
+              <c:f>Sheet1!$L$2:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3797,16 +3803,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4151,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0439EB13-8DEA-4DA4-BD28-E0ABE1F425AC}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,10 +4173,12 @@
     <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4181,28 +4189,34 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4213,30 +4227,37 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <f>C2*293/B2</f>
+        <f>B2/C2</f>
+        <v>189.42857142857142</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E13" si="0">C2*293/B2</f>
         <v>1.5467571644042233</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <f>32 / 11.8271186351776</f>
         <v>2.7056463190300515</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.63613738178198098</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.60298507462686501</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.60112383449298201</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.61423096264957999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2">
+        <v>113983510</v>
+      </c>
+      <c r="L2" s="1">
         <v>85806346</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4247,30 +4268,38 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">C3*293/B3</f>
+        <f t="shared" ref="D3:D13" si="1">B3/C3</f>
+        <v>184.14285714285714</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
         <v>1.5911559348332041</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <f>32 / 11.816104888916</f>
         <v>2.708168241635815</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.67048282727725195</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.65124378109452696</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.64995872522633302</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.65134428167521696</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="2">J3/0.651344281675217 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>85653514</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4281,30 +4310,38 @@
         <v>21</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>190.23809523809524</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>1.5401752190237796</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <f>32 / 12.2518055438995</f>
         <v>2.6118599324271554</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.67247386759581795</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.65970149253731303</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.65817914738445704</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.65885042745802802</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1.1524083336550861E-2</v>
+      </c>
+      <c r="L4">
         <v>85635082</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4315,30 +4352,38 @@
         <v>19</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>245.26315789473685</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>1.1946351931330472</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <f>32/ 15.6395952701568</f>
         <v>2.0460887540396802</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.67197610751617698</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.64228855721392997</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.64057131589716398</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.64417278042856796</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>-1.1010308140273151E-2</v>
+      </c>
+      <c r="L5">
         <v>114001930</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4349,30 +4394,38 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <f>C6*293/B6</f>
+        <f t="shared" si="1"/>
+        <v>206.8095238095238</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>1.4167626064932075</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f xml:space="preserve"> 32 / 13.2138648033142</f>
         <v>2.4216987593193782</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.65953210552513597</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.64079601990049695</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.63969087867928998</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.64025393621224402</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>-1.7026856264784063E-2</v>
+      </c>
+      <c r="L6">
         <v>85653526</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4383,30 +4436,38 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <f>C7*293/B7</f>
+        <f t="shared" si="1"/>
+        <v>208.8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>1.4032567049808429</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <f>32 /13.23637342453</f>
         <v>2.4175806298042897</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.66998506719760997</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.64477611940298496</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.64345585529285998</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.64487501296850602</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>-9.9321800907998803E-3</v>
+      </c>
+      <c r="L7">
         <v>85653526</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4417,30 +4478,38 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <f>C8*293/B8</f>
+        <f t="shared" si="1"/>
+        <v>182.46153846153845</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
         <v>1.6058178752107926</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <f>32 / 11.9503273963928</f>
         <v>2.6777509049383186</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.60328521652563405</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.59402985074626802</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.59245957484766099</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.59228914430539503</v>
       </c>
-      <c r="J8">
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>-9.0666547678803222E-2</v>
+      </c>
+      <c r="L8">
         <v>85616674</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4451,30 +4520,38 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <f>C9*293/B9</f>
+        <f t="shared" si="1"/>
+        <v>192.86956521739131</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>1.5191614066726782</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <f>32 / 12.8743271827697</f>
         <v>2.4855667830802886</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.70084619213539001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.68656716417910402</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.68525039116487696</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.68897861885716305</v>
       </c>
-      <c r="J9">
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>5.7779485044610945E-2</v>
+      </c>
+      <c r="L9">
         <v>85653514</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4485,30 +4562,38 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <f>C10*293/B10</f>
+        <f t="shared" si="1"/>
+        <v>192.45833333333334</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>1.5224074474994587</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f xml:space="preserve"> 32 / 12.6667664051055</f>
         <v>2.5262958971993039</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.715778994524639</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.68805970149253703</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.68660909411717697</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.69102997184543002</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>6.0928899334379505E-2</v>
+      </c>
+      <c r="L10" s="1">
         <v>85635082</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4519,30 +4604,38 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D13" si="1">C11*293/B11</f>
+        <f t="shared" si="1"/>
+        <v>245.31578947368422</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>1.1943788886505042</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f xml:space="preserve"> 32 / 16.0069088935852</f>
         <v>1.999136761053476</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.72075659532105496</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.70646766169154196</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.70522165661944303</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.70676026749341603</v>
       </c>
-      <c r="J11">
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>8.5079407891127223E-2</v>
+      </c>
+      <c r="L11">
         <v>113983498</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4554,29 +4647,37 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
+        <v>215.875</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
         <v>1.3572669368847712</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f xml:space="preserve"> 32/ 14.0491971969604</f>
         <v>2.2777102172730075</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.71876555500248795</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.69253731343283498</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.69128572810917699</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.69593767606894896</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>6.8463630753064386E-2</v>
+      </c>
+      <c r="L12">
         <v>85635094</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4588,25 +4689,33 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
+        <v>268.26315789473682</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>1.0922111045713165</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f>32/17.3773918151855</f>
         <v>1.8414731244096314</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.72374315579890403</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.70447761194029801</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.70342781452877201</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.70493985269063997</v>
       </c>
-      <c r="J13">
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>8.2284549850623501E-2</v>
+      </c>
+      <c r="L13">
         <v>113983510</v>
       </c>
     </row>

--- a/models_and_metrics/metrics_summary.xlsx
+++ b/models_and_metrics/metrics_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio Coding\DL_final_project\models_and_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD108F48-6E4B-4B17-80C3-B5773E107C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20214E3D-35CD-48DB-8B97-BF9699BC8E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32CD13F7-3551-4E15-BA67-D6630EDB706E}"/>
   </bookViews>
